--- a/onlineTickeingSystem/project status.xlsx
+++ b/onlineTickeingSystem/project status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LANGUAGE COURSE MATERIAL\java course\advanced java workspace\java_EE\onlineTickeingSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94E8EFB-78AF-44B3-A662-E93B173FBDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A5AF3-8FBE-42B1-8D1E-980A49EB0F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{042403F4-35A4-496F-A03B-58EC283936B3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -48,10 +48,41 @@
     <t>time spent</t>
   </si>
   <si>
-    <t>10.12.202</t>
-  </si>
-  <si>
-    <t>created project, added User module</t>
+    <t>4 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created project, added User module, 
+CRUD operations for User added, Bean validation added </t>
+  </si>
+  <si>
+    <t>dependencies -Spring starter JPA
+Starter validation
+Spring Starter Web
+MySQL connector
+Lombok
+Model Mapper</t>
+  </si>
+  <si>
+    <t>Issues
+ faced</t>
+  </si>
+  <si>
+    <t>for Bean validation messeges to be catched in client side, need to add 
+1. API Response
+2. Global exception
+3. ResourceNotFoundException</t>
+  </si>
+  <si>
+    <t>10.12.2023</t>
+  </si>
+  <si>
+    <t>11.12.2023</t>
+  </si>
+  <si>
+    <t>1.30 hrs</t>
+  </si>
+  <si>
+    <t>Stop, Route Entity,DTO,Repo, created, Service started for Stop</t>
   </si>
 </sst>
 </file>
@@ -67,12 +98,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -102,10 +139,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,42 +467,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A283DF-5243-4A9E-815A-B17C0AE99C90}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73.140625" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/onlineTickeingSystem/project status.xlsx
+++ b/onlineTickeingSystem/project status.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LANGUAGE COURSE MATERIAL\java course\advanced java workspace\java_EE\onlineTickeingSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A5AF3-8FBE-42B1-8D1E-980A49EB0F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58B39CA-2C42-4EEF-93AD-524040E3BF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{042403F4-35A4-496F-A03B-58EC283936B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{042403F4-35A4-496F-A03B-58EC283936B3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="project status" sheetId="1" r:id="rId1"/>
+    <sheet name="API Test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -84,12 +85,186 @@
   <si>
     <t>Stop, Route Entity,DTO,Repo, created, Service started for Stop</t>
   </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input json </t>
+  </si>
+  <si>
+    <t>validations</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>createUser</t>
+  </si>
+  <si>
+    <t>{
+    "userName" : "Abhijeet Shinde",
+    "email" : "abhijeet@abit.com",
+    "password" : "Shinde@1997",
+    "phoneNumber" : "9552317853",
+    "role":"admin",
+    "adhaarNumber":"1234123412341234",
+    "qrCode":"111111"
+}</t>
+  </si>
+  <si>
+    <t>all working fine</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>getAllUsers</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>getUserById</t>
+  </si>
+  <si>
+    <t>{
+    "userName" : "Abhijeet Shinde",
+    "email" : "abhijeet.shinde1997@abit.com",
+    "password" : "Shinde@1997",
+    "phoneNumber" : "9552317853",
+    "role":"admin",
+    "adhaarNumber":"1234123412341234",
+    "qrCode":"111111"
+}</t>
+  </si>
+  <si>
+    <t>updateUser</t>
+  </si>
+  <si>
+    <t>deleteUser</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>createStop</t>
+  </si>
+  <si>
+    <t>{
+    "stopName" : "test1todelete"
+}</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/users/</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/users/1452</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/users/1453</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/rssc/stop/</t>
+  </si>
+  <si>
+    <t>getStopById</t>
+  </si>
+  <si>
+    <t>getAllStops</t>
+  </si>
+  <si>
+    <t>updateStop</t>
+  </si>
+  <si>
+    <t>deleteStop</t>
+  </si>
+  <si>
+    <t>createRoute</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/rssc/stop/9</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/rssc/stop/9/updatedStop</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/rssc/route/</t>
+  </si>
+  <si>
+    <t>{
+  "routeName": "TestRoute1",
+  "description": "Test Route - All Stop - Non-AC",
+  "stopsAndRates": {
+    "Stop1": 0.0,
+    "Stop2": 5.0,
+    "Stop3": 10.5,
+    "Stop4": 15.0,
+    "Stop5": 20.5,
+    "Stop6": 25.0,
+    "Stop7": 30.5,
+    "Stop8": 35.0
+  }
+}</t>
+  </si>
+  <si>
+    <t>getRouteById</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/rssc/route/2</t>
+  </si>
+  <si>
+    <t>getAllRoutes</t>
+  </si>
+  <si>
+    <t>updateRoute</t>
+  </si>
+  <si>
+    <t>{
+  "routeName": "TestRoute2",
+  "description": "Test Route - All Stop - Non-AC",
+  "stopsAndRates": {
+    "TestStop1": 0.0,
+    "TestStop2": 5.0,
+    "TestStop3": 10.5,
+    "TestStop4": 15.0,
+    "TestStop5": 20.5,
+    "TestStop6": 25.0,
+    "TestStop7": 30.5,
+    "TestStop8": 35.0,
+    "TestStopAdded" : 45.0
+  }
+}</t>
+  </si>
+  <si>
+    <t>deleteRoute</t>
+  </si>
+  <si>
+    <t>findRoutes</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/rssc/route/TestStop2/TestStop5</t>
+  </si>
+  <si>
+    <t>calculateFare</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,8 +272,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,8 +294,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -135,11 +324,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -153,8 +380,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A283DF-5243-4A9E-815A-B17C0AE99C90}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,4 +784,385 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC11360-EBC9-4162-AB7C-461F1A75AE41}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{25495A5B-FFB1-4200-AD31-CE260B008F4B}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{BE48F984-341C-418A-AB3D-B7B4221E9FAD}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{7D41C5C5-90E5-4856-8C23-59D4A50D935E}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{0312462F-1EEC-46F0-9A2B-5507012FFF45}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{803910D7-5240-4ED1-AF94-49C4DDEB97AA}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{C245254B-2D5F-4593-8106-848249AA57DE}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{ABCB126F-E1CB-4B7E-8FE7-31555434E6B4}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{7097A81A-5A9F-4BB0-966C-8A5A9DD4A2B3}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{12732D7A-BC53-4D16-AEEC-5E8BAFAAD09E}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{C6A3D2DF-C602-45EB-885A-305C8C0DC6E1}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{0BC31074-245B-46E0-9F71-01AAEA3C6FE1}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{BB251DED-4D0F-4E5B-A6ED-10A1BFDD4710}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{91FE9F6F-0BF4-46AC-B365-BABE232FEF19}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{BC0CF227-F239-42BE-B4A1-48636BDA458F}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{22E87368-4439-4E34-AFCC-9BA51A8D24F7}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{0132E52B-1E5B-453F-B9B7-8940851D00E9}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{8C928D39-FA4F-473A-8B44-75DA2793B9F5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
+</worksheet>
 </file>